--- a/SkuHairPro22.xlsx
+++ b/SkuHairPro22.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3401D56A-5E8D-46A6-829D-0F0EDF09220B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9105C80C-642E-4C89-9FAA-9F5573215F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rel" sheetId="1" r:id="rId1"/>
-    <sheet name="truss" sheetId="3" r:id="rId2"/>
-    <sheet name="urls" sheetId="5" r:id="rId3"/>
-    <sheet name="kits" sheetId="2" r:id="rId4"/>
-    <sheet name="sem anuncios" sheetId="4" r:id="rId5"/>
+    <sheet name="testes" sheetId="6" r:id="rId2"/>
+    <sheet name="truss" sheetId="3" r:id="rId3"/>
+    <sheet name="urls" sheetId="5" r:id="rId4"/>
+    <sheet name="kits" sheetId="2" r:id="rId5"/>
+    <sheet name="sem anuncios" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">kits!$A$1:$K$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">kits!$A$1:$K$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rel!$A$1:$N$562</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">truss!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">truss!$A$1:$F$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5139" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5206" uniqueCount="1914">
   <si>
     <t>SKU Seller</t>
   </si>
@@ -6171,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A356"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23242,11 +23243,417 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB8D64A-6570-4F0B-8355-3157E0AD6684}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="97.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20044278</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7898667820719</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20044278</v>
+      </c>
+      <c r="G2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2">
+        <v>101.7</v>
+      </c>
+      <c r="K2">
+        <v>99.9</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20044279</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7898667820771</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20044279</v>
+      </c>
+      <c r="G3" t="s">
+        <v>776</v>
+      </c>
+      <c r="I3" t="s">
+        <v>490</v>
+      </c>
+      <c r="J3">
+        <v>99</v>
+      </c>
+      <c r="K3">
+        <v>89.9</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>777</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44673</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20044286</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7898667820504</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20044286</v>
+      </c>
+      <c r="G4" t="s">
+        <v>774</v>
+      </c>
+      <c r="I4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J4">
+        <v>186.7</v>
+      </c>
+      <c r="K4">
+        <v>149.9</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44601</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4527</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7898947942568</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4527</v>
+      </c>
+      <c r="G5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>159.9</v>
+      </c>
+      <c r="K5">
+        <v>109.9</v>
+      </c>
+      <c r="L5">
+        <v>219</v>
+      </c>
+      <c r="M5" t="s">
+        <v>293</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44601</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4531</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7898352519232</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4531</v>
+      </c>
+      <c r="G6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>121.9</v>
+      </c>
+      <c r="K6">
+        <v>79.8</v>
+      </c>
+      <c r="L6">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44602</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4840</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7898947942551</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4840</v>
+      </c>
+      <c r="G7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>139.9</v>
+      </c>
+      <c r="K7">
+        <v>109.9</v>
+      </c>
+      <c r="L7">
+        <v>317</v>
+      </c>
+      <c r="M7" t="s">
+        <v>322</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44519</v>
+      </c>
+      <c r="D8" s="4">
+        <v>21701</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7898947942056</v>
+      </c>
+      <c r="F8" s="4">
+        <v>21701</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>153.9</v>
+      </c>
+      <c r="K8">
+        <v>129.9</v>
+      </c>
+      <c r="L8">
+        <v>437</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44606</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26760</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7898352517979</v>
+      </c>
+      <c r="F9" s="4">
+        <v>26760</v>
+      </c>
+      <c r="G9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>104.9</v>
+      </c>
+      <c r="K9">
+        <v>94.9</v>
+      </c>
+      <c r="L9">
+        <v>145</v>
+      </c>
+      <c r="M9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83364A09-A7B2-482F-8FD6-47E64BDB0577}">
   <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27431,7 +27838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F994E250-4FE1-4FE9-9F8E-DBE673A85EFA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27445,7 +27852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EBBCF1-94DA-4783-BE2C-30709EAC505F}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K207"/>
@@ -33257,15 +33664,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D48B693-04E2-4A98-B805-FC6178967BCE}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
